--- a/VCD-Generator.Tests/Data/Requirements.xlsx
+++ b/VCD-Generator.Tests/Data/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgerene\Documents\15-Source-Code\VCD-Generator\VCD-Generator.Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC86B3-275E-4D54-A9FC-06E3A7E81604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDCC91B-8FBE-4903-915D-685969752DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>REQ-02</t>
   </si>
@@ -37,6 +37,66 @@
   </si>
   <si>
     <t>The VCD Generator shall read the requirements from an excel spreadsheet</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Requirement Text</t>
+  </si>
+  <si>
+    <t>Section Nr</t>
+  </si>
+  <si>
+    <t>Main Section</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Verif Method</t>
+  </si>
+  <si>
+    <t>Compliance (Y/N/P)</t>
+  </si>
+  <si>
+    <t>Actual Compliance(Y/N/P)</t>
+  </si>
+  <si>
+    <t>Close out status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>hifh</t>
+  </si>
+  <si>
+    <t>VCD Generation</t>
+  </si>
+  <si>
+    <t>User Journey</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -72,13 +132,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -89,6 +157,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A0B5B8-BF47-4090-8519-2EC54667B5A5}" name="Table1" displayName="Table1" ref="B2:M4" totalsRowShown="0">
+  <autoFilter ref="B2:M4" xr:uid="{05A0B5B8-BF47-4090-8519-2EC54667B5A5}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B3BF3AAF-8CB9-4355-A1F6-88DC119537FB}" name="Identifier"/>
+    <tableColumn id="2" xr3:uid="{6BACE76D-307C-4128-BFF8-FE91C202CE86}" name="Requirement Text" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D667C5E7-9D72-4AA4-A110-D530A4918335}" name="Section Nr"/>
+    <tableColumn id="4" xr3:uid="{4AF3A3A6-DE26-4E84-A3AC-226942D89C94}" name="Main Section"/>
+    <tableColumn id="5" xr3:uid="{8FC708C2-1896-418D-B9E8-25A57FBF5FE0}" name="WP"/>
+    <tableColumn id="6" xr3:uid="{37BD89E3-579F-4030-B632-6B17D4FAB97E}" name="Priority"/>
+    <tableColumn id="7" xr3:uid="{15B4EF4F-CB73-4026-99E9-5818309F33F8}" name="User Journey"/>
+    <tableColumn id="8" xr3:uid="{141B4C2B-9D38-47D4-8BF9-F9F6B42D3607}" name="Verif Method"/>
+    <tableColumn id="9" xr3:uid="{CBC4F621-B0F9-4B84-AC13-AF8838ECEBFB}" name="Compliance (Y/N/P)"/>
+    <tableColumn id="10" xr3:uid="{B6821272-2761-4827-A0D1-3CF7E9883F55}" name="Actual Compliance(Y/N/P)"/>
+    <tableColumn id="11" xr3:uid="{1D77B0C0-1BD5-4A3A-8A7E-945AAA8B871B}" name="Close out status"/>
+    <tableColumn id="12" xr3:uid="{12751EED-5B12-4BB0-9C09-16EA9A5A3CBC}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,31 +443,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B2:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/VCD-Generator.Tests/Data/Requirements.xlsx
+++ b/VCD-Generator.Tests/Data/Requirements.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgerene\Documents\15-Source-Code\VCD-Generator\VCD-Generator.Tests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgerene\Documents\15-Source-Code\VCD-Generator\VCD-Generator\VCD-Generator.Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDCC91B-8FBE-4903-915D-685969752DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F481684-A1C8-4A6D-8CE8-D284C9649A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="requirements" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
